--- a/www/ig/fhir/core/2.0.0-ballot/ValueSet-fr-core-vs-patient-identifier-type.xlsx
+++ b/www/ig/fhir/core/2.0.0-ballot/ValueSet-fr-core-vs-patient-identifier-type.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T09:40:49+01:00</t>
+    <t>2024-02-20T11:14:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,12 +125,6 @@
   </si>
   <si>
     <t>Regional Registry ID</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>Numéro de sécurité sociale</t>
   </si>
   <si>
     <t/>
@@ -447,7 +441,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -502,23 +496,15 @@
         <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>39</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -548,58 +534,58 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/fhir/core/2.0.0-ballot/ValueSet-fr-core-vs-patient-identifier-type.xlsx
+++ b/www/ig/fhir/core/2.0.0-ballot/ValueSet-fr-core-vs-patient-identifier-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T11:14:35+01:00</t>
+    <t>2024-02-20T11:29:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
